--- a/service-app/public/template.xlsx
+++ b/service-app/public/template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA224E04-3923-4135-B48B-B4B409F3C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA49455-E6D5-4479-9C5D-52B4278D4CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,27 +31,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Device Name</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Contract ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>Contract No.</t>
   </si>
   <si>
     <t>Division ID</t>
   </si>
   <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
   </si>
   <si>
     <t>Vendor Name</t>
@@ -90,9 +102,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +129,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" Requires="we">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="App1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1291B8F-819F-39B3-9B0A-5283F9E2083A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/webextensions/webextension/2010/11">
+              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10810875" y="0"/>
+              <a:ext cx="2286000" cy="2095500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,55 +525,105 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E1291B8F-819F-39B3-9B0A-5283F9E2083A}">
+  <we:reference id="wa102957665" version="1.3.0.0" store="en-US" storeType="omex"/>
+  <we:alternateReferences>
+    <we:reference id="wa102957665" version="1.3.0.0" store="omex" storeType="omex"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="L7" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="date" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Please insert Date!" error="Please insert Date!" sqref="J1:J1048576" xr:uid="{C17ACB20-A320-4D67-A07D-A148CCEB2389}">
+      <formula1>36526</formula1>
+      <formula2>73415</formula2>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="End date must be after or equal to start date!" error="End date must be after or equal to start date!" sqref="K1:K1048576" xr:uid="{2DF99967-828C-422B-BF5B-8D7C7E9DA1C3}">
+      <formula1>AND(ISNUMBER(K2), K2&gt;=J2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/service-app/public/template.xlsx
+++ b/service-app/public/template.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28906"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA49455-E6D5-4479-9C5D-52B4278D4CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD816D05-F675-44BF-8FB2-30007FB1756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="1" r:id="rId1"/>
+    <sheet name="Lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Description</t>
   </si>
@@ -42,31 +43,139 @@
     <t>Contract No.</t>
   </si>
   <si>
+    <t>Division Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
     <t>Division ID</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Issue Date</t>
-  </si>
-  <si>
-    <t>Expire Date</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>PLANT B</t>
+  </si>
+  <si>
+    <t>PLANT C</t>
+  </si>
+  <si>
+    <t>PRODUCTION TECHNIC</t>
+  </si>
+  <si>
+    <t>UTILITY</t>
+  </si>
+  <si>
+    <t>PLANNING</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
+    <t>SAFETY &amp; ISI</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>PURCHASE</t>
+  </si>
+  <si>
+    <t>TECHNICAL-I</t>
+  </si>
+  <si>
+    <t>FACTORY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ACCOUNTING &amp; LEGAL</t>
+  </si>
+  <si>
+    <t>HR &amp; GA OFFICE</t>
+  </si>
+  <si>
+    <t>INFORMATION TECH.</t>
+  </si>
+  <si>
+    <t>TECHNICAL CENTER-I</t>
+  </si>
+  <si>
+    <t>SSC</t>
+  </si>
+  <si>
+    <t>HR &amp; GA FACTORY</t>
+  </si>
+  <si>
+    <t>SALES DIVISION</t>
+  </si>
+  <si>
+    <t>OFFICE MANAGEMENT</t>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>Analysis_AP</t>
+  </si>
+  <si>
+    <t>OHS&amp;E</t>
+  </si>
+  <si>
+    <t>PRESIDENT</t>
+  </si>
+  <si>
+    <t>Senior Manager</t>
+  </si>
+  <si>
+    <t>Japanese Advisor / General Manager / Factory Manager</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>ANALYSIS</t>
+  </si>
+  <si>
+    <t>TECHNICAL-II</t>
+  </si>
+  <si>
+    <t>TECHNICAL CENTER-II</t>
+  </si>
+  <si>
+    <t>LOGISTICS-Delivery</t>
+  </si>
+  <si>
+    <t>LOGISTICS-Packaging</t>
+  </si>
+  <si>
+    <t>LOGISTICS-Warehouse</t>
+  </si>
+  <si>
+    <t>QA &amp; ANALYSIS</t>
   </si>
 </sst>
 </file>
@@ -104,7 +213,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -113,6 +221,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -135,16 +246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" Requires="we">
@@ -180,8 +291,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10810875" y="0"/>
-              <a:ext cx="2286000" cy="2095500"/>
+              <a:off x="1533525" y="200025"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -525,105 +636,741 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
 <we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E1291B8F-819F-39B3-9B0A-5283F9E2083A}">
   <we:reference id="wa102957665" version="1.3.0.0" store="en-US" storeType="omex"/>
   <we:alternateReferences>
     <we:reference id="wa102957665" version="1.3.0.0" store="omex" storeType="omex"/>
   </we:alternateReferences>
-  <we:properties/>
+  <we:properties>
+    <we:property name="opt_month" value="&quot;2025-01-01&quot;"/>
+  </we:properties>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3CA4B470-C5BC-4D77-84DA-7A75F180BF86}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="en-US" storeType="omex"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.11" store="en-US" storeType="omex"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;SJMq-pSCJuWZPKb3I-hs7&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="L7" s="1"/>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="N2" t="e">
+        <f>VLOOKUP(D2, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="N3" t="e">
+        <f>VLOOKUP(D3, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="N4" t="e">
+        <f>VLOOKUP(D4, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="N5" t="e">
+        <f>VLOOKUP(D5, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="N6" t="e">
+        <f>VLOOKUP(D6, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="L7" s="3"/>
+      <c r="N7" t="e">
+        <f>VLOOKUP(D7, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2"/>
+      <c r="N8" t="e">
+        <f>VLOOKUP(D8, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="N9" t="e">
+        <f>VLOOKUP(D9, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="N10" t="e">
+        <f>VLOOKUP(D10, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" s="3"/>
+      <c r="N11" t="e">
+        <f>VLOOKUP(D11, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="N12" t="e">
+        <f>VLOOKUP(D12, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="N13" t="e">
+        <f>VLOOKUP(D13, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="N14" t="e">
+        <f>VLOOKUP(D14, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="N15" t="e">
+        <f>VLOOKUP(D15, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="N16" t="e">
+        <f>VLOOKUP(D16, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" t="e">
+        <f>VLOOKUP(D17, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14">
+      <c r="N18" t="e">
+        <f>VLOOKUP(D18, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" t="e">
+        <f>VLOOKUP(D19, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" t="e">
+        <f>VLOOKUP(D20, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" t="e">
+        <f>VLOOKUP(D21, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" t="e">
+        <f>VLOOKUP(D22, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" t="e">
+        <f>VLOOKUP(D23, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" t="e">
+        <f>VLOOKUP(D24, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14">
+      <c r="N25" t="e">
+        <f>VLOOKUP(D25, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="14:14">
+      <c r="N26" t="e">
+        <f>VLOOKUP(D26, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="14:14">
+      <c r="N27" t="e">
+        <f>VLOOKUP(D27, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="14:14">
+      <c r="N28" t="e">
+        <f>VLOOKUP(D28, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="14:14">
+      <c r="N29" t="e">
+        <f>VLOOKUP(D29, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="14:14">
+      <c r="N30" t="e">
+        <f>VLOOKUP(D30, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="14:14">
+      <c r="N31" t="e">
+        <f>VLOOKUP(D31, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="14:14">
+      <c r="N32" t="e">
+        <f>VLOOKUP(D32, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" t="e">
+        <f>VLOOKUP(D33, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14">
+      <c r="N34" t="e">
+        <f>VLOOKUP(D34, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14">
+      <c r="N35" t="e">
+        <f>VLOOKUP(D35, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14">
+      <c r="N36" t="e">
+        <f>VLOOKUP(D36, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" t="e">
+        <f>VLOOKUP(D37, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" t="e">
+        <f>VLOOKUP(D38, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14">
+      <c r="N39" t="e">
+        <f>VLOOKUP(D39, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14">
+      <c r="N40" t="e">
+        <f>VLOOKUP(D40, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" t="e">
+        <f>VLOOKUP(D41, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" t="e">
+        <f>VLOOKUP(D42, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" t="e">
+        <f>VLOOKUP(D43, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14">
+      <c r="N44" t="e">
+        <f>VLOOKUP(D44, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14">
+      <c r="N45" t="e">
+        <f>VLOOKUP(D45, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14">
+      <c r="N46" t="e">
+        <f>VLOOKUP(D46, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14">
+      <c r="N47" t="e">
+        <f>VLOOKUP(D47, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14">
+      <c r="N48" t="e">
+        <f>VLOOKUP(D48, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" t="e">
+        <f>VLOOKUP(D49, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" t="e">
+        <f>VLOOKUP(D50, Lookup!$A$1:$B$35, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="date" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Please insert Date!" error="Please insert Date!" sqref="J1:J1048576" xr:uid="{C17ACB20-A320-4D67-A07D-A148CCEB2389}">
+  <dataValidations count="4">
+    <dataValidation type="date" errorStyle="warning" allowBlank="1" errorTitle="Please insert Date!" error="Please insert Date!" sqref="J1:J1048576" xr:uid="{C17ACB20-A320-4D67-A07D-A148CCEB2389}">
       <formula1>36526</formula1>
       <formula2>73415</formula2>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="End date must be after or equal to start date!" error="End date must be after or equal to start date!" sqref="K1:K1048576" xr:uid="{2DF99967-828C-422B-BF5B-8D7C7E9DA1C3}">
-      <formula1>AND(ISNUMBER(K2), K2&gt;=J2)</formula1>
+    <dataValidation type="custom" errorStyle="warning" showErrorMessage="1" errorTitle="End date must be after or equal to start date!" error="End date must be after or equal to start date!" sqref="K1 K101:K1048576" xr:uid="{2DF99967-828C-422B-BF5B-8D7C7E9DA1C3}">
+      <formula1>K2&gt;=J2</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{22E9DA1C-6E3A-40A4-A278-4C1A071E40CA}"/>
+    <dataValidation type="custom" errorStyle="warning" showErrorMessage="1" errorTitle="End date must be after or equal to start date!" error="End date must be after or equal to start date!" sqref="K2:K100" xr:uid="{923F5562-8F35-4339-9ED8-4562B8393C44}">
+      <formula1>K2&gt;=J2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{838E97D5-0E29-4BB2-9B68-BF85F6350EB8}">
+          <x14:formula1>
+            <xm:f>Lookup!$A$1:$A$35</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FA599-7B57-4A82-A288-C66E3A2AB7C6}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/service-app/public/template.xlsx
+++ b/service-app/public/template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28914"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD816D05-F675-44BF-8FB2-30007FB1756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trainee01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4443956-C88B-4DD8-9378-4AC75A14F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -68,6 +73,15 @@
   </si>
   <si>
     <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Contract</t>
   </si>
   <si>
     <t>Division ID</t>
@@ -268,7 +282,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noGrp="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -282,38 +298,29 @@
         </xdr:graphicFrame>
       </mc:Choice>
       <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="App1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1291B8F-819F-39B3-9B0A-5283F9E2083A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1533525" y="200025"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:endParaRPr sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+        </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
     <xdr:clientData/>
@@ -654,7 +661,7 @@
     <we:property name="opt_month" value="&quot;2025-01-01&quot;"/>
   </we:properties>
   <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
 </we:webextension>
 </file>
 
@@ -679,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="J2:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
@@ -693,14 +700,16 @@
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,310 +746,319 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="N2" t="e">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="P2" t="e">
         <f>VLOOKUP(D2, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="N3" t="e">
+    <row r="3" spans="1:16">
+      <c r="P3" t="e">
         <f>VLOOKUP(D3, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="N4" t="e">
+      <c r="P4" t="e">
         <f>VLOOKUP(D4, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="N5" t="e">
+    <row r="5" spans="1:16">
+      <c r="P5" t="e">
         <f>VLOOKUP(D5, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="N6" t="e">
+    <row r="6" spans="1:16">
+      <c r="P6" t="e">
         <f>VLOOKUP(D6, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="L7" s="3"/>
-      <c r="N7" t="e">
+      <c r="P7" t="e">
         <f>VLOOKUP(D7, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="2"/>
-      <c r="N8" t="e">
+      <c r="P8" t="e">
         <f>VLOOKUP(D8, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="N9" t="e">
+      <c r="P9" t="e">
         <f>VLOOKUP(D9, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="N10" t="e">
+      <c r="P10" t="e">
         <f>VLOOKUP(D10, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="E11" s="3"/>
-      <c r="N11" t="e">
+      <c r="P11" t="e">
         <f>VLOOKUP(D11, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="N12" t="e">
+    <row r="12" spans="1:16">
+      <c r="P12" t="e">
         <f>VLOOKUP(D12, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="N13" t="e">
+    <row r="13" spans="1:16">
+      <c r="P13" t="e">
         <f>VLOOKUP(D13, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="N14" t="e">
+    <row r="14" spans="1:16">
+      <c r="P14" t="e">
         <f>VLOOKUP(D14, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="N15" t="e">
+    <row r="15" spans="1:16">
+      <c r="P15" t="e">
         <f>VLOOKUP(D15, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="N16" t="e">
+    <row r="16" spans="1:16">
+      <c r="P16" t="e">
         <f>VLOOKUP(D16, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="14:14">
-      <c r="N17" t="e">
+    <row r="17" spans="16:16">
+      <c r="P17" t="e">
         <f>VLOOKUP(D17, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="14:14">
-      <c r="N18" t="e">
+    <row r="18" spans="16:16">
+      <c r="P18" t="e">
         <f>VLOOKUP(D18, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="14:14">
-      <c r="N19" t="e">
+    <row r="19" spans="16:16">
+      <c r="P19" t="e">
         <f>VLOOKUP(D19, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="14:14">
-      <c r="N20" t="e">
+    <row r="20" spans="16:16">
+      <c r="P20" t="e">
         <f>VLOOKUP(D20, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="14:14">
-      <c r="N21" t="e">
+    <row r="21" spans="16:16">
+      <c r="P21" t="e">
         <f>VLOOKUP(D21, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="14:14">
-      <c r="N22" t="e">
+    <row r="22" spans="16:16">
+      <c r="P22" t="e">
         <f>VLOOKUP(D22, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="e">
+    <row r="23" spans="16:16">
+      <c r="P23" t="e">
         <f>VLOOKUP(D23, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="e">
+    <row r="24" spans="16:16">
+      <c r="P24" t="e">
         <f>VLOOKUP(D24, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="14:14">
-      <c r="N25" t="e">
+    <row r="25" spans="16:16">
+      <c r="P25" t="e">
         <f>VLOOKUP(D25, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="14:14">
-      <c r="N26" t="e">
+    <row r="26" spans="16:16">
+      <c r="P26" t="e">
         <f>VLOOKUP(D26, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="14:14">
-      <c r="N27" t="e">
+    <row r="27" spans="16:16">
+      <c r="P27" t="e">
         <f>VLOOKUP(D27, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="14:14">
-      <c r="N28" t="e">
+    <row r="28" spans="16:16">
+      <c r="P28" t="e">
         <f>VLOOKUP(D28, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="14:14">
-      <c r="N29" t="e">
+    <row r="29" spans="16:16">
+      <c r="P29" t="e">
         <f>VLOOKUP(D29, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="14:14">
-      <c r="N30" t="e">
+    <row r="30" spans="16:16">
+      <c r="P30" t="e">
         <f>VLOOKUP(D30, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="14:14">
-      <c r="N31" t="e">
+    <row r="31" spans="16:16">
+      <c r="P31" t="e">
         <f>VLOOKUP(D31, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="14:14">
-      <c r="N32" t="e">
+    <row r="32" spans="16:16">
+      <c r="P32" t="e">
         <f>VLOOKUP(D32, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="14:14">
-      <c r="N33" t="e">
+    <row r="33" spans="16:16">
+      <c r="P33" t="e">
         <f>VLOOKUP(D33, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="14:14">
-      <c r="N34" t="e">
+    <row r="34" spans="16:16">
+      <c r="P34" t="e">
         <f>VLOOKUP(D34, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="14:14">
-      <c r="N35" t="e">
+    <row r="35" spans="16:16">
+      <c r="P35" t="e">
         <f>VLOOKUP(D35, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="14:14">
-      <c r="N36" t="e">
+    <row r="36" spans="16:16">
+      <c r="P36" t="e">
         <f>VLOOKUP(D36, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="14:14">
-      <c r="N37" t="e">
+    <row r="37" spans="16:16">
+      <c r="P37" t="e">
         <f>VLOOKUP(D37, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="14:14">
-      <c r="N38" t="e">
+    <row r="38" spans="16:16">
+      <c r="P38" t="e">
         <f>VLOOKUP(D38, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="14:14">
-      <c r="N39" t="e">
+    <row r="39" spans="16:16">
+      <c r="P39" t="e">
         <f>VLOOKUP(D39, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="14:14">
-      <c r="N40" t="e">
+    <row r="40" spans="16:16">
+      <c r="P40" t="e">
         <f>VLOOKUP(D40, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="14:14">
-      <c r="N41" t="e">
+    <row r="41" spans="16:16">
+      <c r="P41" t="e">
         <f>VLOOKUP(D41, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="14:14">
-      <c r="N42" t="e">
+    <row r="42" spans="16:16">
+      <c r="P42" t="e">
         <f>VLOOKUP(D42, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="14:14">
-      <c r="N43" t="e">
+    <row r="43" spans="16:16">
+      <c r="P43" t="e">
         <f>VLOOKUP(D43, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="14:14">
-      <c r="N44" t="e">
+    <row r="44" spans="16:16">
+      <c r="P44" t="e">
         <f>VLOOKUP(D44, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="14:14">
-      <c r="N45" t="e">
+    <row r="45" spans="16:16">
+      <c r="P45" t="e">
         <f>VLOOKUP(D45, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="14:14">
-      <c r="N46" t="e">
+    <row r="46" spans="16:16">
+      <c r="P46" t="e">
         <f>VLOOKUP(D46, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="14:14">
-      <c r="N47" t="e">
+    <row r="47" spans="16:16">
+      <c r="P47" t="e">
         <f>VLOOKUP(D47, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="14:14">
-      <c r="N48" t="e">
+    <row r="48" spans="16:16">
+      <c r="P48" t="e">
         <f>VLOOKUP(D48, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="14:14">
-      <c r="N49" t="e">
+    <row r="49" spans="16:16">
+      <c r="P49" t="e">
         <f>VLOOKUP(D49, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="14:14">
-      <c r="N50" t="e">
+    <row r="50" spans="16:16">
+      <c r="P50" t="e">
         <f>VLOOKUP(D50, Lookup!$A$1:$B$35, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -1049,7 +1067,7 @@
   <dataValidations count="4">
     <dataValidation type="date" errorStyle="warning" allowBlank="1" errorTitle="Please insert Date!" error="Please insert Date!" sqref="J1:J1048576" xr:uid="{C17ACB20-A320-4D67-A07D-A148CCEB2389}">
       <formula1>36526</formula1>
-      <formula2>73415</formula2>
+      <formula2>73385</formula2>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" showErrorMessage="1" errorTitle="End date must be after or equal to start date!" error="End date must be after or equal to start date!" sqref="K1 K101:K1048576" xr:uid="{2DF99967-828C-422B-BF5B-8D7C7E9DA1C3}">
       <formula1>K2&gt;=J2</formula1>
@@ -1084,7 +1102,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
@@ -1092,7 +1110,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -1100,7 +1118,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
@@ -1108,7 +1126,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -1116,7 +1134,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -1124,7 +1142,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -1132,7 +1150,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
@@ -1140,7 +1158,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>7</v>
@@ -1148,7 +1166,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>8</v>
@@ -1156,7 +1174,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>9</v>
@@ -1164,7 +1182,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>10</v>
@@ -1172,7 +1190,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
         <v>11</v>
@@ -1180,7 +1198,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>12</v>
@@ -1188,7 +1206,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
         <v>13</v>
@@ -1196,7 +1214,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4">
         <v>14</v>
@@ -1204,7 +1222,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4">
         <v>15</v>
@@ -1212,7 +1230,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4">
         <v>16</v>
@@ -1220,7 +1238,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4">
         <v>17</v>
@@ -1228,7 +1246,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4">
         <v>18</v>
@@ -1236,7 +1254,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4">
         <v>19</v>
@@ -1244,7 +1262,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4">
         <v>20</v>
@@ -1252,7 +1270,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4">
         <v>21</v>
@@ -1260,7 +1278,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4">
         <v>22</v>
@@ -1268,7 +1286,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4">
         <v>23</v>
@@ -1276,7 +1294,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4">
         <v>24</v>
@@ -1284,7 +1302,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4">
         <v>25</v>
@@ -1292,7 +1310,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4">
         <v>26</v>
@@ -1300,7 +1318,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4">
         <v>27</v>
@@ -1308,7 +1326,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4">
         <v>28</v>
@@ -1316,7 +1334,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" s="4">
         <v>29</v>
@@ -1324,7 +1342,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" s="4">
         <v>30</v>
@@ -1332,7 +1350,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4">
         <v>31</v>
@@ -1340,7 +1358,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4">
         <v>32</v>
@@ -1348,7 +1366,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B33" s="4">
         <v>33</v>
@@ -1356,7 +1374,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" s="4">
         <v>34</v>
@@ -1364,7 +1382,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B35" s="4">
         <v>35</v>
